--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты за ЭЭ на 97 дн.в сумме 171,36руб. (3006,31 х 57 х 0,1%)</t>
   </si>
 </sst>
 </file>
@@ -227,6 +230,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -243,7 +247,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,10 +554,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,82 +937,150 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="10" t="s">
+      <c r="A16" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>79034</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="4">C16-C14</f>
+        <v>590</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>2649.1</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>3006.31</v>
+      </c>
+      <c r="H16" s="12">
+        <v>4847.3999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>33840</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="5"/>
+        <v>357.21000000000004</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>47239.55</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>47290.990000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
+        <v>50245.86</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H2:H17)</f>
+        <v>52138.390000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>43563</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12">
         <v>653.9</v>
       </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>43850</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12">
         <v>203.59</v>
       </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="19" t="s">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12">
+        <v>171.36</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="12">
-        <f>SUM(G16:G18)</f>
-        <v>48097.04</v>
-      </c>
-      <c r="H19" s="12">
-        <f>SUM(H16:H18)</f>
-        <v>47290.990000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="19" t="s">
+      <c r="G22" s="12">
+        <f>SUM(G18:G21)</f>
+        <v>51274.71</v>
+      </c>
+      <c r="H22" s="12">
+        <f>SUM(H18:H21)</f>
+        <v>52138.390000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
-        <f>SUM(H19,-G19)</f>
-        <v>-806.04999999999563</v>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
+        <f>SUM(H22,-G22)</f>
+        <v>863.68000000000757</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
+  <mergeCells count="3">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -54,9 +54,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>итого с пенями</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты за ЭЭ на 97 дн.в сумме 171,36руб. (3006,31 х 57 х 0,1%)</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -116,13 +116,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -198,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,37 +215,27 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,10 +543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,7 +554,7 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" customWidth="1"/>
@@ -612,9 +601,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -626,9 +615,9 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -647,15 +636,15 @@
       <c r="E4" s="2">
         <v>4.57</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>4113</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>5069</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>4990</v>
       </c>
     </row>
@@ -674,12 +663,12 @@
       <c r="E5" s="2">
         <v>2.39</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>956</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -698,15 +687,15 @@
       <c r="E6" s="2">
         <v>4.57</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>11214.78</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
         <v>12954.7</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>12954.7</v>
       </c>
     </row>
@@ -725,12 +714,12 @@
       <c r="E7" s="2">
         <v>2.39</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>1739.92</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -749,15 +738,15 @@
       <c r="E8" s="2">
         <v>4.49</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>9343.69</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
         <v>11533.12</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>11663.56</v>
       </c>
     </row>
@@ -776,12 +765,12 @@
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>2189.4300000000003</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -800,15 +789,15 @@
       <c r="E10" s="2">
         <v>4.49</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <f t="shared" ref="F10:F15" si="3">D10*E10</f>
         <v>8153.84</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
         <v>9835.4</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>9835.4</v>
       </c>
     </row>
@@ -827,12 +816,12 @@
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <f t="shared" si="3"/>
         <v>1681.5600000000002</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -851,15 +840,15 @@
       <c r="E12" s="2">
         <v>4.49</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <f t="shared" si="3"/>
         <v>2402.15</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
         <v>2999.9300000000003</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <v>2999.93</v>
       </c>
     </row>
@@ -878,12 +867,12 @@
       <c r="E13" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <f t="shared" si="3"/>
         <v>597.78000000000009</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -902,15 +891,15 @@
       <c r="E14" s="2">
         <v>4.49</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <f t="shared" si="3"/>
         <v>3838.9500000000003</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
         <v>4847.4000000000005</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <v>4847.3999999999996</v>
       </c>
     </row>
@@ -929,12 +918,12 @@
       <c r="E15" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <f t="shared" si="3"/>
         <v>1008.45</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -953,16 +942,16 @@
       <c r="E16" s="2">
         <v>4.49</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <f t="shared" ref="F16:F17" si="5">D16*E16</f>
         <v>2649.1</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
         <v>3006.31</v>
       </c>
-      <c r="H16" s="12">
-        <v>4847.3999999999996</v>
+      <c r="H16" s="9">
+        <v>3006.31</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,108 +969,156 @@
       <c r="E17" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <f t="shared" si="5"/>
         <v>357.21000000000004</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43563</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>653.9</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43850</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
+        <v>203.59</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9">
+        <v>171.36</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>82358</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21-C16</f>
+        <v>3324</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21:F22" si="6">D21*E21</f>
+        <v>14924.76</v>
+      </c>
+      <c r="G21" s="9">
+        <f>SUM(F21,F22)</f>
+        <v>15884.61</v>
+      </c>
+      <c r="H21" s="9">
+        <v>15884.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>34235</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22-C17</f>
+        <v>395</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="6"/>
+        <v>959.85</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>50245.86</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>52138.390000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>43563</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12">
-        <v>653.9</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>43850</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12">
-        <v>203.59</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>43948</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12">
-        <v>171.36</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="13" t="s">
+      <c r="G23" s="9">
+        <f>SUM(G4:G22)</f>
+        <v>67159.320000000007</v>
+      </c>
+      <c r="H23" s="9">
+        <f>SUM(H4:H22)</f>
+        <v>66181.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="12">
-        <f>SUM(G18:G21)</f>
-        <v>51274.71</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H18:H21)</f>
-        <v>52138.390000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <f>SUM(H22,-G22)</f>
-        <v>863.68000000000757</v>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
+        <f>SUM(H23,-G23)</f>
+        <v>-977.41000000000349</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,35 +169,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,20 +197,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -980,16 +953,16 @@
       <c r="A18" s="6">
         <v>43563</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>0</v>
       </c>
       <c r="F18" s="7">
@@ -1004,16 +977,16 @@
       <c r="A19" s="6">
         <v>43850</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>0</v>
       </c>
       <c r="F19" s="8"/>
@@ -1026,16 +999,16 @@
       <c r="A20" s="6">
         <v>43948</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="14">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>0</v>
       </c>
       <c r="F20" s="8"/>
@@ -1096,32 +1069,83 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="10" t="s">
+      <c r="A23" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>83154</v>
+      </c>
+      <c r="D23" s="2">
+        <f>C23-C21</f>
+        <v>796</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" ref="F23:F24" si="7">D23*E23</f>
+        <v>3749.16</v>
+      </c>
+      <c r="G23" s="9">
+        <f>SUM(F23,F24)</f>
+        <v>5355.66</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5355.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>34865</v>
+      </c>
+      <c r="D24" s="2">
+        <f>C24-C22</f>
+        <v>630</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>1606.5</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="9">
-        <f>SUM(G4:G22)</f>
-        <v>67159.320000000007</v>
-      </c>
-      <c r="H23" s="9">
-        <f>SUM(H4:H22)</f>
-        <v>66181.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="10" t="s">
+      <c r="G25" s="9">
+        <f>SUM(G4:G24)</f>
+        <v>72514.98000000001</v>
+      </c>
+      <c r="H25" s="9">
+        <f>SUM(H4:H24)</f>
+        <v>71537.570000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
-        <f>SUM(H23,-G23)</f>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <f>SUM(H25,-G25)</f>
         <v>-977.41000000000349</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -516,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1120,25 +1120,76 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
+      <c r="A25" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>83816</v>
+      </c>
+      <c r="D25" s="2">
+        <f>C25-C23</f>
+        <v>662</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25:F26" si="8">D25*E25</f>
+        <v>3118.02</v>
+      </c>
+      <c r="G25" s="9">
+        <f>SUM(F25,F26)</f>
+        <v>4372.62</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4372.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>35357</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26-C24</f>
+        <v>492</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="8"/>
+        <v>1254.5999999999999</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="9">
-        <f>SUM(G4:G24)</f>
-        <v>72514.98000000001</v>
-      </c>
-      <c r="H25" s="9">
-        <f>SUM(H4:H24)</f>
-        <v>71537.570000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="10" t="s">
+      <c r="G27" s="9">
+        <f>SUM(G4:G26)</f>
+        <v>76887.600000000006</v>
+      </c>
+      <c r="H27" s="9">
+        <f>SUM(H4:H26)</f>
+        <v>75910.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
-        <f>SUM(H25,-G25)</f>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <f>SUM(H27,-G27)</f>
         <v>-977.41000000000349</v>
       </c>
     </row>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -516,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1171,25 +1171,76 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="10" t="s">
+      <c r="A27" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>84548</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27-C25</f>
+        <v>732</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" ref="F27:F28" si="9">D27*E27</f>
+        <v>3447.72</v>
+      </c>
+      <c r="G27" s="9">
+        <f>SUM(F27,F28)</f>
+        <v>5061.87</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5061.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>35990</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C28-C26</f>
+        <v>633</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="9"/>
+        <v>1614.1499999999999</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="9">
-        <f>SUM(G4:G26)</f>
-        <v>76887.600000000006</v>
-      </c>
-      <c r="H27" s="9">
-        <f>SUM(H4:H26)</f>
-        <v>75910.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="10" t="s">
+      <c r="G29" s="9">
+        <f>SUM(G4:G28)</f>
+        <v>81949.47</v>
+      </c>
+      <c r="H29" s="9">
+        <f>SUM(H4:H28)</f>
+        <v>80972.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
-        <f>SUM(H27,-G27)</f>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <f>SUM(H29,-G29)</f>
         <v>-977.41000000000349</v>
       </c>
     </row>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -630,6 +630,57 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44194</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>86340</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>1078</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>5077.38</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(F8,F9)</f>
+        <v>7390.23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7390.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>37582</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="4"/>
+        <v>907</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="5"/>
+        <v>2312.85</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,6 +681,108 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>87041</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>701</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>3301.71</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(F10,F11)</f>
+        <v>4579.26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4579.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>38083</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>501</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="7"/>
+        <v>1277.55</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>87655</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>614</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>2891.94</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(F12,F13)</f>
+        <v>4149.09</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4149.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>38576</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>493</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="9"/>
+        <v>1257.1499999999999</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -783,6 +783,57 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44328</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>89378</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>1723</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>8115.33</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SUM(F14,F15)</f>
+        <v>10331.279999999999</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10331.280000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>39445</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="10"/>
+        <v>869</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="11"/>
+        <v>2215.9499999999998</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,6 +834,108 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44376</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>90067</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>689</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>3245.19</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(F16,F17)</f>
+        <v>4346.79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4346.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>39877</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="12"/>
+        <v>432</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="13"/>
+        <v>1101.5999999999999</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>91980</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
+        <v>1913</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>9010.23</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F18,F19)</f>
+        <v>9650.2799999999988</v>
+      </c>
+      <c r="H18" s="7">
+        <v>9650.2800000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40128</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="14"/>
+        <v>251</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="15"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -936,6 +936,57 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44418</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>92300</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
+        <v>320</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>1587.2</v>
+      </c>
+      <c r="G20" s="7">
+        <f>SUM(F20,F21)</f>
+        <v>1769.44</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1769.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40196</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="17"/>
+        <v>182.24</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -987,6 +987,57 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>92601</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
+        <v>301</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>1492.96</v>
+      </c>
+      <c r="G22" s="7">
+        <f>SUM(F22,F23)</f>
+        <v>1763.64</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1763.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40297</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="18"/>
+        <v>101</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="19"/>
+        <v>270.68</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1038,57 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>93220</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="20">C24-C22</f>
+        <v>619</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>3070.24</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUM(F24,F25)</f>
+        <v>3673.24</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3673.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>40522</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="20"/>
+        <v>225</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="21"/>
+        <v>603</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/269ee.xlsx
+++ b/sputnik/personal/ee/269ee.xlsx
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -146,6 +146,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -453,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1090,16 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="8">
+        <f>SUM(G2:G25)</f>
+        <v>57824.81</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SUM(H2:H25)</f>
+        <v>57824.810000000005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
